--- a/model/output.xlsx
+++ b/model/output.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,9 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,119 +440,121 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>ALTAGAS LTD_signal</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>FMC CORP_signal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>STORA ENSO_signal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>WEYERHAEUSER CO_signal</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>BHP GROUP_signal</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>INTERNATIONAL PAPER CO_signal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>S&amp;P 500 ENERGY INDEX</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>WILMAR INTERNATIONAL LTD_signal</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TOTALENERGIES SE_signal</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BP PLC_signal</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>BP PLC_market</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>FMC CORP_market</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>WEYERHAEUSER CO_market</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ALTAGAS LTD_market</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>BHP GROUP_market</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>INTERNATIONAL PAPER CO_market</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>STORA ENSO_market</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>WILMAR INTERNATIONAL LTD_market</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>TOTALENERGIES SE_market</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>DATE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" s="2" t="n">
+        <v>43009</v>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -556,3806 +564,3984 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
         <v>1.05919372</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>1.03974919</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>1.05524537</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>0.996559807</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>1.01110289</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>1.007919747</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>1.1090907</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>1.06134326</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>1.0395282</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>2017</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B3" t="n">
         <v>-1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>-0.4</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>-1</v>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
         <v>0.990112633</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
         <v>1.01658411</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.994152047</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>1.003155098</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>1.01390922</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>0.9971177530000001</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>0.9775342299999999</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>0.92970218</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>1.01094549</v>
       </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>2017</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="B4" t="n">
         <v>0.3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.03448275862068972</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-0.1348314606741573</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.2173913043478262</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>-0.1666666666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
         <v>1.06988426</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
         <v>1.004495863</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>0.996608253</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.01138093</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>1.1068592</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>1.02349408</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>1.03931891</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>0.9994244869</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>0.99520451</v>
       </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>2017</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B5" t="n">
         <v>0.2413793103448276</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>-0.2222222222222222</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-0.09375</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.07692307692307687</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.1111111111111112</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>-0.5555555555555556</v>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
         <v>1.00546154</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.96482147</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.06466251</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>0.98592124</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>1.06588389</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>1.08491543</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>1.07955951</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>1.05525747</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>1.04592249</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3289473684210527</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.01418439716312059</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1012658227848102</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.032258064516129</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.3333333333333334</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>0.93550714</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8593014</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.93313798</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.92759413</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9485924100000001</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.95574327</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.03713166</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.0006024694</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.990471421</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2018</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.4066666666666666</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.07246376811594202</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1439999999999999</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0.01694915254237284</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1.02560396</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.97786453</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.00844877</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.9029174600000001</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.9789968999999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8966269</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.05921066</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.993985219</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.00198236</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="W7" t="n">
         <v>3</v>
       </c>
-      <c r="U5" t="n">
-        <v>2018</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.3289473684210527</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.01418439716312059</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1012658227848102</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.032258064516129</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.3333333333333334</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0.93550714</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8593014</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.93313798</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.92759413</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.9485924100000001</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.95574327</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.03713166</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.0006024694</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.990471421</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.4066666666666666</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.07246376811594202</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1439999999999999</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>0.01694915254237284</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>1.02560396</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.97786453</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.00844877</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.9029174600000001</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.9789968999999999</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.8966269</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.05921066</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.993985219</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.00198236</v>
-      </c>
-      <c r="T7" t="n">
-        <v>5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2018</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B8" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>-0.3240223463687151</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-0.07608695652173914</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.03157894736842115</v>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
         <v>0.01666666666666661</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.2</v>
       </c>
       <c r="H8" t="n">
         <v>0.2</v>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.2</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
         <v>1.1024053</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.04126943</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>1.05085714</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>1.05206822</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>1.05221697</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>0.96500094</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>1.08415009</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>1.01501176</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>1.1168666</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2602739726027398</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.1074380165289256</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>-0.2222222222222222</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1.04804592</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.09231155</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.01495378</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.02522817</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.06481283</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.04665303</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.02725725</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.003986283</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.95930522</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.04878048780487809</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07602339181286544</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2975206611570247</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.2380952380952381</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>0.99599704</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.02625654</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9848932500000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.05869758</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.004620329</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.97345794</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.95793294</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.92802113</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.01537868</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="W10" t="n">
         <v>6</v>
       </c>
-      <c r="U8" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.09722222222222221</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03053435114503822</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2847222222222223</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>0.98631981</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.007510369</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9374657200000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.99178561</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.044991</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.03168203</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8453994</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.02452962</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.07247549</v>
+      </c>
+      <c r="V11" t="n">
         <v>2018</v>
       </c>
-      <c r="V8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.2602739726027398</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.1074380165289256</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>-0.2222222222222222</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0714285714285714</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>1.04804592</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.09231155</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01495378</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.02522817</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.06481283</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.04665303</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.02725725</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.003986283</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.95930522</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="W11" t="n">
         <v>7</v>
       </c>
-      <c r="U9" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1363636363636365</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.04918032786885251</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1515151515151516</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>0.95575128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.95071206</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.01550614</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.91915586</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.91924991</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.96052051</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.1237572</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.0245575</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.95531232</v>
+      </c>
+      <c r="V12" t="n">
         <v>2018</v>
       </c>
-      <c r="V9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.04878048780487809</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07602339181286544</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.2975206611570247</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.2380952380952381</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>0.99599704</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.02625654</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9848932500000001</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.05869758</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.004620329</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.97345794</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.95793294</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.92802113</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.01537868</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="W12" t="n">
         <v>8</v>
       </c>
-      <c r="U10" t="n">
-        <v>2018</v>
-      </c>
-      <c r="V10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.09722222222222221</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03053435114503822</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.2847222222222223</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>0.1375</v>
-      </c>
-      <c r="G11" t="n">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.2265625</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.029126213592233</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1621621621621621</v>
+      </c>
+      <c r="F13" t="n">
         <v>-1</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>0.98631981</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.007510369</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.9374657200000001</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.99178561</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.044991</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.03168203</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.8453994</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.02452962</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.07247549</v>
-      </c>
-      <c r="T11" t="n">
-        <v>9</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2018</v>
-      </c>
-      <c r="V11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.1363636363636365</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.125</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04918032786885251</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1515151515151516</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.08333333333333326</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>0.95575128</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.95071206</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01550614</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.91915586</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.91924991</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.96052051</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.1237572</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.0245575</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.95531232</v>
-      </c>
-      <c r="T12" t="n">
-        <v>10</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2018</v>
-      </c>
-      <c r="V12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.2265625</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.029126213592233</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1621621621621621</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-0.04838709677419351</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
         <v>1.08363668</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
+        <v>11</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.02216526</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>0.93889753</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>0.8626672</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>1.06646635</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>0.96108721</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>1.02912358</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>1.01044639</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>1.05022152</v>
       </c>
-      <c r="T13" t="n">
-        <v>11</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>2018</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B14" t="n">
         <v>0.08000000000000007</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>-0.1081081081081081</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>-0.1360544217687075</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.1188118811881189</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.02325581395348841</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.25</v>
       </c>
       <c r="H14" t="n">
         <v>-0.25</v>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>-0.25</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
         <v>0.94140946</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
+        <v>12</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.8956183</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>0.8252246999999999</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>0.7986213</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>0.92656501</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>0.92288911</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>0.7861703</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>0.96756234</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>0.90583875</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
+        <v>2018</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1030927835051547</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1063829787234043</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>0.93018966</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.05968238</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.004348631</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8734729999999999</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.960589</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.02946606</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.846596</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.97148579</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.9469618399999999</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="W15" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.2713178294573644</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03157894736842115</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.03260869565217384</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.0625</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.3157894736842105</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>0.95315176</v>
+      </c>
+      <c r="M16" t="n">
+        <v>14</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8987307</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8277168</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.94558007</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.08859333</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8737822</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.90602427</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.03369502</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.96367176</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="W16" t="n">
         <v>12</v>
       </c>
-      <c r="U14" t="n">
-        <v>2018</v>
-      </c>
-      <c r="V14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.1866666666666666</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1611570247933884</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1730769230769231</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.4615384615384616</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1.07963034</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.0789616</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.200366</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.008730266</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.1055421</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.1751734</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.1605553</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.08070751</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.03879646</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.2043010752688172</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.07006369426751591</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.146551724137931</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.04477611940298498</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1.05414296</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.1215539</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.96150915</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.3198035</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.03340496</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.97617312</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.001711029</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.95697977</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.0357048</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1818181818181819</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.2948717948717948</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.0449438202247191</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.08965517241379306</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1059602649006623</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1555555555555554</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1.02359033</v>
+      </c>
+      <c r="M19" t="n">
+        <v>17</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.995665981</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.05825633</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.98388745</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.05536734</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.009821039</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.95087514</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.03170358</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.98871276</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.06060606060606055</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.2095238095238096</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.1016042780748663</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2472527472527473</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1845238095238095</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.4285714285714286</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1.004669893</v>
+      </c>
+      <c r="M20" t="n">
+        <v>18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.02915907</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.01746393</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.01370055</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.9685385</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.01167063</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.01524145</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.09565547</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.0001481921</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.1720430107526881</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.1048387096774194</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1679999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1169590643274854</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.3076923076923077</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0.94953321</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.9290412299999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.8507463</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.09080172</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.98035883</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8962786</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.8509359</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.91169931</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.93675066</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.2232142857142857</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.07567567567567568</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0641025641025641</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1818181818181818</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1.021127</v>
+      </c>
+      <c r="M22" t="n">
+        <v>20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.1347764</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.172267</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.05307336</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.1194375</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.04461056</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.1115413</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.1426492</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.08939791</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="C23" t="n">
         <v>-0.25</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.1030927835051547</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1063829787234043</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>0.93018966</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.05968238</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.004348631</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.8734729999999999</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.960589</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.02946606</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.846596</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.97148579</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.9469618399999999</v>
-      </c>
-      <c r="T15" t="n">
-        <v>13</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="V15" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.2713178294573644</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.03157894736842115</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.03260869565217384</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.0625</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.3157894736842105</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>0.95315176</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.8987307</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8277168</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.94558007</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.08859333</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.8737822</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.90602427</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.03369502</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.96367176</v>
-      </c>
-      <c r="T16" t="n">
-        <v>14</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2018</v>
-      </c>
-      <c r="V16" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.1866666666666666</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1611570247933884</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.1730769230769231</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.2040816326530612</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.4615384615384616</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>1.07963034</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.0789616</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.200366</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.008730266</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.1055421</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.1751734</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.1605553</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.08070751</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.03879646</v>
-      </c>
-      <c r="T17" t="n">
-        <v>15</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2019</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0.1578947368421053</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.2043010752688172</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.07006369426751591</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.146551724137931</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.04477611940298498</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>1.05414296</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.1215539</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.96150915</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.3198035</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.03340496</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.97617312</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.001711029</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.95697977</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.0357048</v>
-      </c>
-      <c r="T18" t="n">
-        <v>16</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2019</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0.1818181818181819</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.2948717948717948</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.0449438202247191</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.08965517241379306</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1059602649006623</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.1555555555555554</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>1.02359033</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.995665981</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05825633</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.98388745</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.05536734</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.009821039</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.95087514</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.03170358</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.98871276</v>
-      </c>
-      <c r="T19" t="n">
-        <v>17</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2019</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0.06060606060606055</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.2095238095238096</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.1016042780748663</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.2472527472527473</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1845238095238095</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.4285714285714286</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>1.004669893</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.02915907</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01746393</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.01370055</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.9685385</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.01167063</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.01524145</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.09565547</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.0001481921</v>
-      </c>
-      <c r="T20" t="n">
-        <v>18</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2019</v>
-      </c>
-      <c r="V20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.1720430107526881</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.1048387096774194</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.1679999999999999</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.1169590643274854</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.253968253968254</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.3076923076923077</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>0.94953321</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.9290412299999999</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8507463</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.09080172</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.98035883</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.8962786</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.8509359</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.91169931</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.93675066</v>
-      </c>
-      <c r="T21" t="n">
-        <v>19</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2019</v>
-      </c>
-      <c r="V21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.2232142857142857</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.07567567567567568</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.1111111111111112</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.0641025641025641</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.1818181818181818</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>1.021127</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.1347764</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.172267</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.05307336</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.1194375</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.04461056</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.1115413</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.1426492</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.08939791</v>
-      </c>
-      <c r="T22" t="n">
-        <v>20</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2019</v>
-      </c>
-      <c r="V22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>-0.07499999999999996</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-0.1428571428571429</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>-0.02409638554216864</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>-0.07407407407407407</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>-0.2</v>
       </c>
-      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
         <v>0.95702517</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
+        <v>21</v>
+      </c>
+      <c r="N23" t="n">
         <v>1.04183243</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>0.96469248</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>1.01977103</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>0.9452762</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>1.01361958</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>0.98914279</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>1.066014</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>0.93512902</v>
       </c>
-      <c r="T23" t="n">
-        <v>21</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>2019</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B24" t="n">
         <v>0.6363636363636365</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>-0.2427184466019418</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>-0.1203007518796992</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0.05555555555555558</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.06422018348623859</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.02631578947368429</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>-0.25</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
         <v>0.92834976</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
+        <v>22</v>
+      </c>
+      <c r="N24" t="n">
         <v>0.998958574</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>1.03541913</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>0.8882201000000001</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>0.8949572</v>
       </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
         <v>0.90197726</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
         <v>0.96234331</v>
       </c>
-      <c r="R24" t="n">
+      <c r="T24" t="n">
         <v>0.94916635</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>0.9528851699999999</v>
       </c>
-      <c r="T24" t="n">
-        <v>22</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>2019</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B25" t="n">
         <v>0.1000000000000001</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>-0.2788461538461539</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>-0.1515151515151515</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>0.1538461538461537</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.15625</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>0.2272727272727273</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>-0.6923076923076923</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>-0.5</v>
       </c>
-      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
         <v>1.04169774</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
+        <v>23</v>
+      </c>
+      <c r="N25" t="n">
         <v>1.02035444</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>1.06629393</v>
       </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
         <v>1.08509849</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>1.03625335</v>
       </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
         <v>1.06956522</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>1.07861177</v>
       </c>
-      <c r="R25" t="n">
+      <c r="T25" t="n">
         <v>0.98289626</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>1.06132473</v>
       </c>
-      <c r="T25" t="n">
-        <v>23</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>2019</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B26" t="n">
         <v>0.2</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>-0.2575757575757576</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>-0.06829268292682922</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>0.2666666666666666</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.1038961038961039</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.125</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>-0.6428571428571428</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
         <v>0.998563237</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
+        <v>24</v>
+      </c>
+      <c r="N26" t="n">
         <v>1.04356752</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>1.05451263</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>0.995144731</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>0.990481976</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>1.04447633</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="n">
         <v>1.07499697</v>
       </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
         <v>1.02153932</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>1.006275842</v>
       </c>
-      <c r="T26" t="n">
-        <v>24</v>
-      </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>2019</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B27" t="n">
         <v>0.08333333333333326</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>-0.3652173913043478</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>-0.1220930232558139</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>0.1785714285714286</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.0535714285714286</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>-0.04000000000000004</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>-0.7</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>-1</v>
       </c>
-      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
         <v>0.99629153</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
+        <v>25</v>
+      </c>
+      <c r="N27" t="n">
         <v>1.07060109</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>1.01027045</v>
       </c>
-      <c r="N27" t="n">
+      <c r="P27" t="n">
         <v>1.02297395</v>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>1.05356778</v>
       </c>
-      <c r="P27" t="n">
+      <c r="R27" t="n">
         <v>1.07284448</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
         <v>1.03722209</v>
       </c>
-      <c r="R27" t="n">
+      <c r="T27" t="n">
         <v>1.08540314</v>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>0.99892557</v>
       </c>
-      <c r="T27" t="n">
-        <v>25</v>
-      </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>2019</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B28" t="n">
         <v>0.25</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>-0.25</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>-0.005847953216374324</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.08695652173913038</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>-0.04347826086956519</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>-0.4117647058823529</v>
       </c>
-      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
         <v>1.007227824</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
+        <v>26</v>
+      </c>
+      <c r="N28" t="n">
         <v>1.02350613</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>1.03527763</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>1.03169061</v>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>1.06171163</v>
       </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
         <v>0.993741907</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="S28" t="n">
         <v>1.08151642</v>
       </c>
-      <c r="R28" t="n">
+      <c r="T28" t="n">
         <v>1.02456589</v>
       </c>
-      <c r="S28" t="n">
+      <c r="U28" t="n">
         <v>1.05271426</v>
       </c>
-      <c r="T28" t="n">
-        <v>26</v>
-      </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>2019</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B29" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>-0.2242990654205608</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>-0.00649350649350644</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0.05555555555555558</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>-0.02898550724637683</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>0.1000000000000001</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>-0.2</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
         <v>0.96351339</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
+        <v>27</v>
+      </c>
+      <c r="N29" t="n">
         <v>0.95762372</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>0.95860927</v>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>1.06065974</v>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>0.9341985</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
         <v>0.8842562</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
         <v>0.8967013</v>
       </c>
-      <c r="R29" t="n">
+      <c r="T29" t="n">
         <v>0.93498283</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>0.8971777</v>
       </c>
-      <c r="T29" t="n">
-        <v>27</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>2020</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="B30" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>-0.1911764705882353</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>-0.04132231404958675</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>-0.1111111111111112</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>-0.1428571428571429</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>-0.5833333333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
         <v>0.8534913</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
+        <v>28</v>
+      </c>
+      <c r="N30" t="n">
         <v>0.97395125</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>0.8974093</v>
       </c>
-      <c r="N30" t="n">
+      <c r="P30" t="n">
         <v>0.93127358</v>
       </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
         <v>0.847388</v>
       </c>
-      <c r="P30" t="n">
+      <c r="R30" t="n">
         <v>0.91849275</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>0.90397616</v>
       </c>
-      <c r="R30" t="n">
+      <c r="T30" t="n">
         <v>0.993791754</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>0.8629751</v>
       </c>
-      <c r="T30" t="n">
-        <v>28</v>
-      </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>2020</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B31" t="n">
         <v>0.08333333333333326</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>-0.2156862745098039</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>-0.06299212598425197</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.116504854368932</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>0.06521739130434789</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>-0.75</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
         <v>0.8441471</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
+        <v>29</v>
+      </c>
+      <c r="N31" t="n">
         <v>0.8821154</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>0.6606528</v>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>0.6059298</v>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>0.8727005</v>
       </c>
-      <c r="P31" t="n">
+      <c r="R31" t="n">
         <v>0.8422619</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="n">
         <v>0.8609511</v>
       </c>
-      <c r="R31" t="n">
+      <c r="T31" t="n">
         <v>0.7966901</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U31" t="n">
         <v>0.9382074499999999</v>
       </c>
-      <c r="T31" t="n">
-        <v>29</v>
-      </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>2020</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B32" t="n">
         <v>0.3999999999999999</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>-0.1919191919191919</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>-0.09999999999999998</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>0.09090909090909083</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>-0.04225352112676062</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>-0.08571428571428574</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>-0.6521739130434783</v>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
         <v>0.9231457</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
+        <v>30</v>
+      </c>
+      <c r="N32" t="n">
         <v>1.1249847</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>1.2902655</v>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>1.3362717</v>
       </c>
-      <c r="O32" t="n">
+      <c r="Q32" t="n">
         <v>1.108749</v>
       </c>
-      <c r="P32" t="n">
+      <c r="R32" t="n">
         <v>1.1002249</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="S32" t="n">
         <v>1.1644527</v>
       </c>
-      <c r="R32" t="n">
+      <c r="T32" t="n">
         <v>1.1163958</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
         <v>0.92535166</v>
       </c>
-      <c r="T32" t="n">
-        <v>30</v>
-      </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>2020</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B33" t="n">
         <v>-0.0714285714285714</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>-0.3333333333333334</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>-0.03703703703703709</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>0.06896551724137923</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>-0.0625</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>-0.2666666666666667</v>
       </c>
-      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
         <v>0.98167349</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
+        <v>31</v>
+      </c>
+      <c r="N33" t="n">
         <v>1.07083786</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>0.9231824399999999</v>
       </c>
-      <c r="N33" t="n">
+      <c r="P33" t="n">
         <v>0.90072145</v>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>1.1578171</v>
       </c>
-      <c r="P33" t="n">
+      <c r="R33" t="n">
         <v>1.009002043</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>1.03586069</v>
       </c>
-      <c r="R33" t="n">
+      <c r="T33" t="n">
         <v>1.1116918</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>1.03866005</v>
       </c>
-      <c r="T33" t="n">
-        <v>31</v>
-      </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>2020</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B34" t="n">
         <v>0.4285714285714286</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>-0.2164948453608248</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>-0.0423728813559322</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>0.0625</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>-0.0625</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>-0.0178571428571429</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>-0.125</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
         <v>1.009800002</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
+        <v>32</v>
+      </c>
+      <c r="N34" t="n">
         <v>1.01687273</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>1.1124319</v>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>1.07921233</v>
       </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>1.05583864</v>
       </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
         <v>1.03406755</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="S34" t="n">
         <v>0.98945497</v>
       </c>
-      <c r="R34" t="n">
+      <c r="T34" t="n">
         <v>1.06842821</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>1.04375665</v>
       </c>
-      <c r="T34" t="n">
-        <v>32</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>2020</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>0</v>
+      <c r="A35" s="2" t="n">
+        <v>44013</v>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>-0.196078431372549</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>-0.04854368932038833</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>-0.04545454545454541</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.06000000000000005</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>0.08333333333333326</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>-0.25</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>0.5</v>
       </c>
-      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
         <v>0.94776547</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
+        <v>33</v>
+      </c>
+      <c r="N35" t="n">
         <v>1.06454527</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>1.2382013</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>1.09347347</v>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>1.0625377</v>
       </c>
-      <c r="P35" t="n">
+      <c r="R35" t="n">
         <v>0.98807157</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="S35" t="n">
         <v>1.0517012</v>
       </c>
-      <c r="R35" t="n">
+      <c r="T35" t="n">
         <v>1.1457765</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>0.96616945</v>
       </c>
-      <c r="T35" t="n">
-        <v>33</v>
-      </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>2020</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B36" t="n">
         <v>-0.6</v>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>-0.2678571428571429</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>-0.09803921568627449</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>-0.125</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.03571428571428581</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>-0.4444444444444444</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>0.5</v>
       </c>
-      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
         <v>0.98993504</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
+        <v>34</v>
+      </c>
+      <c r="N36" t="n">
         <v>1.007637907</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>1.08989573</v>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>1.03876194</v>
       </c>
-      <c r="O36" t="n">
+      <c r="Q36" t="n">
         <v>1.04201363</v>
       </c>
-      <c r="P36" t="n">
+      <c r="R36" t="n">
         <v>1.05718339</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="S36" t="n">
         <v>1.1716692</v>
       </c>
-      <c r="R36" t="n">
+      <c r="T36" t="n">
         <v>0.96185512</v>
       </c>
-      <c r="S36" t="n">
+      <c r="U36" t="n">
         <v>1.07123021</v>
       </c>
-      <c r="T36" t="n">
-        <v>34</v>
-      </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>2020</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B37" t="n">
         <v>0.2857142857142858</v>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>-0.1927710843373494</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>-0.02020202020202022</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>0.04761904761904767</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>0.05325443786982254</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>-0.3043478260869565</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>0.5</v>
       </c>
-      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
         <v>0.8257775000000001</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
+        <v>35</v>
+      </c>
+      <c r="N37" t="n">
         <v>0.99525086</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>0.94094358</v>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>0.93850087</v>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>0.9585942200000001</v>
       </c>
-      <c r="P37" t="n">
+      <c r="R37" t="n">
         <v>1.1177281</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="S37" t="n">
         <v>1.06459062</v>
       </c>
-      <c r="R37" t="n">
+      <c r="T37" t="n">
         <v>1.005403218</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
         <v>0.8861425000000001</v>
       </c>
-      <c r="T37" t="n">
-        <v>35</v>
-      </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>2020</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B38" t="n">
         <v>0.2222222222222223</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>-0.2</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>-0.08839779005524862</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>0.1071428571428572</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>0.05339805825242716</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>0.03030303030303028</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>-0.1875</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
         <v>0.8750979</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
+        <v>36</v>
+      </c>
+      <c r="N38" t="n">
         <v>0.9700689300000001</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38" t="n">
         <v>0.95687237</v>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>1.05303782</v>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>0.93038097</v>
       </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
         <v>1.07918106</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
         <v>0.9303771</v>
       </c>
-      <c r="R38" t="n">
+      <c r="T38" t="n">
         <v>0.91690536</v>
       </c>
-      <c r="S38" t="n">
+      <c r="U38" t="n">
         <v>0.8785134999999999</v>
       </c>
-      <c r="T38" t="n">
-        <v>36</v>
-      </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>2020</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B39" t="n">
         <v>0.1111111111111112</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>-0.24</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>-0.1306532663316583</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.05263157894736836</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>-0.2424242424242424</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
         <v>1.3256261</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
+        <v>37</v>
+      </c>
+      <c r="N39" t="n">
         <v>1.129161</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>1.06412605</v>
       </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>1.1392323</v>
       </c>
-      <c r="O39" t="n">
+      <c r="Q39" t="n">
         <v>1.1596342</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R39" t="n">
         <v>1.1430746</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>1.1612576</v>
       </c>
-      <c r="R39" t="n">
+      <c r="T39" t="n">
         <v>1.06339853</v>
       </c>
-      <c r="S39" t="n">
+      <c r="U39" t="n">
         <v>1.4241851</v>
       </c>
-      <c r="T39" t="n">
-        <v>37</v>
-      </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>2020</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0</v>
+      <c r="A40" s="2" t="n">
+        <v>44166</v>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
         <v>-0.4</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>-0.1370967741935484</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>-0.5</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>-0.2058823529411765</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>-0.25</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>-0.3170731707317073</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
         <v>1.0518328</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
+        <v>38</v>
+      </c>
+      <c r="N40" t="n">
         <v>0.994858861</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>1.1612703</v>
       </c>
-      <c r="N40" t="n">
+      <c r="P40" t="n">
         <v>1.02527076</v>
       </c>
-      <c r="O40" t="n">
+      <c r="Q40" t="n">
         <v>1.1711776</v>
       </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
         <v>1.004850444</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="S40" t="n">
         <v>1.1465849</v>
       </c>
-      <c r="R40" t="n">
+      <c r="T40" t="n">
         <v>1.1195598</v>
       </c>
-      <c r="S40" t="n">
+      <c r="U40" t="n">
         <v>1.007683442</v>
       </c>
-      <c r="T40" t="n">
-        <v>38</v>
-      </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
         <v>2020</v>
       </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="n">
+      <c r="A41" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
         <v>-0.2692307692307693</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>0.1354166666666667</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>0.5</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.03750000000000009</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>-0.2142857142857143</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>-0.3666666666666667</v>
       </c>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
         <v>1.06983468</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
+        <v>39</v>
+      </c>
+      <c r="N41" t="n">
         <v>0.9422257000000001</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>0.93021175</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>1.01592326</v>
       </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>1.02203857</v>
       </c>
-      <c r="P41" t="n">
+      <c r="R41" t="n">
         <v>1.01186645</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="S41" t="n">
         <v>0.94652382</v>
       </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
         <v>1.1265975</v>
       </c>
-      <c r="S41" t="n">
+      <c r="U41" t="n">
         <v>0.9997277932</v>
       </c>
-      <c r="T41" t="n">
-        <v>39</v>
-      </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>2021</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B42" t="n">
         <v>-0.5</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>-0.4</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>-0.06185567010309279</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>-0.1428571428571429</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>-0.04761904761904767</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-0.2</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>-0.03333333333333333</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>-1</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>1</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
         <v>1.108582</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
+        <v>40</v>
+      </c>
+      <c r="N42" t="n">
         <v>0.93905254</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>1.08592498</v>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>1.02731781</v>
       </c>
-      <c r="O42" t="n">
+      <c r="Q42" t="n">
         <v>1.1367176</v>
       </c>
-      <c r="P42" t="n">
+      <c r="R42" t="n">
         <v>0.997309721</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>1.08366854</v>
       </c>
-      <c r="R42" t="n">
+      <c r="T42" t="n">
         <v>0.9994912948</v>
       </c>
-      <c r="S42" t="n">
+      <c r="U42" t="n">
         <v>1.09501411</v>
       </c>
-      <c r="T42" t="n">
-        <v>40</v>
-      </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>2021</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>0</v>
+      <c r="A43" s="2" t="n">
+        <v>44256</v>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
         <v>-0.2238805970149254</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>-0.08737864077669899</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>-0.3333333333333334</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>0.1166666666666667</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>-0.125</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>-0.3809523809523809</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>-1</v>
       </c>
-      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
         <v>0.9994386688</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
+        <v>41</v>
+      </c>
+      <c r="N43" t="n">
         <v>1.09242037</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
         <v>1.05652365</v>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>1.1019779</v>
       </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
         <v>0.9384048700000001</v>
       </c>
-      <c r="P43" t="n">
+      <c r="R43" t="n">
         <v>1.08902316</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="S43" t="n">
         <v>0.9651581300000001</v>
       </c>
-      <c r="R43" t="n">
+      <c r="T43" t="n">
         <v>1.01765535</v>
       </c>
-      <c r="S43" t="n">
+      <c r="U43" t="n">
         <v>1.02534118</v>
       </c>
-      <c r="T43" t="n">
-        <v>41</v>
-      </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
         <v>2021</v>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B44" t="n">
         <v>-0.4285714285714286</v>
       </c>
-      <c r="B44" t="n">
+      <c r="C44" t="n">
         <v>-0.1463414634146342</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>-0.1590909090909091</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>0.5</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>-0.1785714285714286</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>-0.6666666666666667</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>-0.4102564102564102</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>-0.3333333333333334</v>
       </c>
-      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
         <v>1.03057423</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
+        <v>42</v>
+      </c>
+      <c r="N44" t="n">
         <v>1.0689811</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
         <v>1.08904494</v>
       </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>1.1268116</v>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>1.04856607</v>
       </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
         <v>1.07268356</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="S44" t="n">
         <v>1.02518336</v>
       </c>
-      <c r="R44" t="n">
+      <c r="T44" t="n">
         <v>1.001875378</v>
       </c>
-      <c r="S44" t="n">
+      <c r="U44" t="n">
         <v>0.94765882</v>
       </c>
-      <c r="T44" t="n">
-        <v>42</v>
-      </c>
-      <c r="U44" t="n">
+      <c r="V44" t="n">
         <v>2021</v>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
+        <v>44317</v>
+      </c>
+      <c r="B45" t="n">
         <v>0.4285714285714286</v>
       </c>
-      <c r="B45" t="n">
+      <c r="C45" t="n">
         <v>-0.1219512195121951</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>-0.07246376811594202</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>-0.4444444444444444</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>-0.1363636363636364</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>-0.0714285714285714</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>-0.3333333333333334</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>-1</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
         <v>1.04967641</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
+        <v>43</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.98689107</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>0.97910756</v>
       </c>
-      <c r="N45" t="n">
+      <c r="P45" t="n">
         <v>1.06303874</v>
       </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
         <v>1.01855415</v>
       </c>
-      <c r="P45" t="n">
+      <c r="R45" t="n">
         <v>1.09673237</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="n">
         <v>0.91363704</v>
       </c>
-      <c r="R45" t="n">
+      <c r="T45" t="n">
         <v>0.91994823</v>
       </c>
-      <c r="S45" t="n">
+      <c r="U45" t="n">
         <v>1.04653044</v>
       </c>
-      <c r="T45" t="n">
-        <v>43</v>
-      </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>2021</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>0</v>
+      <c r="A46" s="2" t="n">
+        <v>44348</v>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
         <v>-0.2083333333333334</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>0.04065040650406515</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>-0.09090909090909094</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>-0.3</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>-0.2258064516129032</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>-0.1428571428571429</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
         <v>1.0001353875</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
+        <v>44</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.93132527</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>0.91099157</v>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>1.06222824</v>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>0.98272838</v>
       </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
         <v>0.97163233</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="S46" t="n">
         <v>1.04143559</v>
       </c>
-      <c r="R46" t="n">
+      <c r="T46" t="n">
         <v>0.92635957</v>
       </c>
-      <c r="S46" t="n">
+      <c r="U46" t="n">
         <v>0.991388669</v>
       </c>
-      <c r="T46" t="n">
-        <v>44</v>
-      </c>
-      <c r="U46" t="n">
+      <c r="V46" t="n">
         <v>2021</v>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>0</v>
+      <c r="A47" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
         <v>-0.1714285714285714</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>-0.1379310344827587</v>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
       <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>-0.1290322580645161</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.09090909090909083</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>-0.09677419354838712</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>0.1818181818181819</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
         <v>0.92468157</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
+        <v>45</v>
+      </c>
+      <c r="N47" t="n">
         <v>0.98844732</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47" t="n">
         <v>0.97995352</v>
       </c>
-      <c r="N47" t="n">
+      <c r="P47" t="n">
         <v>1.01272142</v>
       </c>
-      <c r="O47" t="n">
+      <c r="Q47" t="n">
         <v>1.07867637</v>
       </c>
-      <c r="P47" t="n">
+      <c r="R47" t="n">
         <v>0.94209754</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="S47" t="n">
         <v>1.08541315</v>
       </c>
-      <c r="R47" t="n">
+      <c r="T47" t="n">
         <v>0.96052774</v>
       </c>
-      <c r="S47" t="n">
+      <c r="U47" t="n">
         <v>0.96267784</v>
       </c>
-      <c r="T47" t="n">
-        <v>45</v>
-      </c>
-      <c r="U47" t="n">
+      <c r="V47" t="n">
         <v>2021</v>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="n">
+      <c r="A48" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="n">
         <v>-0.2</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>0.170940170940171</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>0.08333333333333326</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.1442307692307692</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>-0.3333333333333334</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>0.05882352941176472</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>0.5</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>0.278688524590164</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
         <v>1.02901746</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
+        <v>46</v>
+      </c>
+      <c r="N48" t="n">
         <v>0.8754558</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48" t="n">
         <v>1.06729914</v>
       </c>
-      <c r="N48" t="n">
+      <c r="P48" t="n">
         <v>0.94851264</v>
       </c>
-      <c r="O48" t="n">
+      <c r="Q48" t="n">
         <v>0.8419042999999999</v>
       </c>
-      <c r="P48" t="n">
+      <c r="R48" t="n">
         <v>1.04934261</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="S48" t="n">
         <v>0.98905131</v>
       </c>
-      <c r="R48" t="n">
+      <c r="T48" t="n">
         <v>0.96951133</v>
       </c>
-      <c r="S48" t="n">
+      <c r="U48" t="n">
         <v>1.01311301</v>
       </c>
-      <c r="T48" t="n">
-        <v>46</v>
-      </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
         <v>2021</v>
       </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>0</v>
+      <c r="A49" s="2" t="n">
+        <v>44440</v>
       </c>
       <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
         <v>-0.2439024390243902</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>-0.1333333333333333</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>-0.5</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>-0.01249999999999996</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>-0.25</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>-0.2</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
         <v>1.1217345</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
+        <v>47</v>
+      </c>
+      <c r="N49" t="n">
         <v>0.98292589</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49" t="n">
         <v>0.992647394</v>
       </c>
-      <c r="N49" t="n">
+      <c r="P49" t="n">
         <v>0.98739374</v>
       </c>
-      <c r="O49" t="n">
+      <c r="Q49" t="n">
         <v>0.8614998</v>
       </c>
-      <c r="P49" t="n">
+      <c r="R49" t="n">
         <v>0.9306041</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="S49" t="n">
         <v>0.8552562</v>
       </c>
-      <c r="R49" t="n">
+      <c r="T49" t="n">
         <v>1.006058997</v>
       </c>
-      <c r="S49" t="n">
+      <c r="U49" t="n">
         <v>1.1035108</v>
       </c>
-      <c r="T49" t="n">
-        <v>47</v>
-      </c>
-      <c r="U49" t="n">
+      <c r="V49" t="n">
         <v>2021</v>
       </c>
-      <c r="V49" t="n">
+      <c r="W49" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B50" t="n">
         <v>-0.25</v>
       </c>
-      <c r="B50" t="n">
+      <c r="C50" t="n">
         <v>0.03125</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>-0.1142857142857143</v>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
       <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>-0.124031007751938</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>-0.25</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>0.2666666666666666</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>0.25</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
         <v>1.04529935</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
+        <v>48</v>
+      </c>
+      <c r="N50" t="n">
         <v>0.99399301</v>
       </c>
-      <c r="M50" t="n">
+      <c r="O50" t="n">
         <v>1.01827383</v>
       </c>
-      <c r="N50" t="n">
+      <c r="P50" t="n">
         <v>1.05254102</v>
       </c>
-      <c r="O50" t="n">
+      <c r="Q50" t="n">
         <v>1.02466368</v>
       </c>
-      <c r="P50" t="n">
+      <c r="R50" t="n">
         <v>0.93805518</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="S50" t="n">
         <v>0.991374463</v>
       </c>
-      <c r="R50" t="n">
+      <c r="T50" t="n">
         <v>1.03335131</v>
       </c>
-      <c r="S50" t="n">
+      <c r="U50" t="n">
         <v>1.0463302</v>
       </c>
-      <c r="T50" t="n">
-        <v>48</v>
-      </c>
-      <c r="U50" t="n">
+      <c r="V50" t="n">
         <v>2021</v>
       </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="n">
+      <c r="A51" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="n">
         <v>-0.3947368421052632</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>0.01587301587301582</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>0.5</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>-0.01600000000000001</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>-0.1818181818181818</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>-0.2903225806451613</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>-0.3333333333333334</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>0.2142857142857142</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
         <v>0.91219395</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
+        <v>49</v>
+      </c>
+      <c r="N51" t="n">
         <v>1.100868</v>
       </c>
-      <c r="M51" t="n">
+      <c r="O51" t="n">
         <v>1.05291153</v>
       </c>
-      <c r="N51" t="n">
+      <c r="P51" t="n">
         <v>0.92025614</v>
       </c>
-      <c r="O51" t="n">
+      <c r="Q51" t="n">
         <v>1.02461707</v>
       </c>
-      <c r="P51" t="n">
+      <c r="R51" t="n">
         <v>0.9250495599999999</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="S51" t="n">
         <v>1.02080026</v>
       </c>
-      <c r="R51" t="n">
+      <c r="T51" t="n">
         <v>0.93907295</v>
       </c>
-      <c r="S51" t="n">
+      <c r="U51" t="n">
         <v>0.9178599000000001</v>
       </c>
-      <c r="T51" t="n">
-        <v>49</v>
-      </c>
-      <c r="U51" t="n">
+      <c r="V51" t="n">
         <v>2021</v>
       </c>
-      <c r="V51" t="n">
+      <c r="W51" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>0</v>
+      <c r="A52" s="2" t="n">
+        <v>44531</v>
       </c>
       <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
         <v>-0.2894736842105263</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>-0.1408450704225352</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>0.3999999999999999</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>0.02803738317756999</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>-0.2857142857142857</v>
       </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>0.06666666666666665</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
         <v>1.03626525</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
+        <v>50</v>
+      </c>
+      <c r="N52" t="n">
         <v>1.1021302</v>
       </c>
-      <c r="M52" t="n">
+      <c r="O52" t="n">
         <v>1.09975503</v>
       </c>
-      <c r="N52" t="n">
+      <c r="P52" t="n">
         <v>1.1424094</v>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>1.07403452</v>
       </c>
-      <c r="P52" t="n">
+      <c r="R52" t="n">
         <v>1.03207381</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="S52" t="n">
         <v>1.07817748</v>
       </c>
-      <c r="R52" t="n">
+      <c r="T52" t="n">
         <v>1.02202456</v>
       </c>
-      <c r="S52" t="n">
+      <c r="U52" t="n">
         <v>1.1062775</v>
       </c>
-      <c r="T52" t="n">
-        <v>50</v>
-      </c>
-      <c r="U52" t="n">
+      <c r="V52" t="n">
         <v>2021</v>
       </c>
-      <c r="V52" t="n">
+      <c r="W52" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B53" t="n">
         <v>-0.2</v>
       </c>
-      <c r="B53" t="n">
+      <c r="C53" t="n">
         <v>-0.2272727272727273</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>-0.03896103896103897</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>0.04424778761061954</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>0.125</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>-0.2962962962962963</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>0.07407407407407418</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
         <v>1.1498588</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
+        <v>51</v>
+      </c>
+      <c r="N53" t="n">
         <v>1.004368005</v>
       </c>
-      <c r="M53" t="n">
+      <c r="O53" t="n">
         <v>0.98178728</v>
       </c>
-      <c r="N53" t="n">
+      <c r="P53" t="n">
         <v>0.9523707299999999</v>
       </c>
-      <c r="O53" t="n">
+      <c r="Q53" t="n">
         <v>1.05385252</v>
       </c>
-      <c r="P53" t="n">
+      <c r="R53" t="n">
         <v>1.02703278</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="S53" t="n">
         <v>1.100865</v>
       </c>
-      <c r="R53" t="n">
+      <c r="T53" t="n">
         <v>1.02850077</v>
       </c>
-      <c r="S53" t="n">
+      <c r="U53" t="n">
         <v>1.1250131</v>
       </c>
-      <c r="T53" t="n">
-        <v>51</v>
-      </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
         <v>2022</v>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>0</v>
+      <c r="A54" s="2" t="n">
+        <v>44593</v>
       </c>
       <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
         <v>0.0625</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>-0.125</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>0.03260869565217384</v>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
         <v>-0.1944444444444444</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>0.08196721311475419</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
         <v>0.95599414</v>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
+        <v>52</v>
+      </c>
+      <c r="N54" t="n">
         <v>1.06233578</v>
       </c>
-      <c r="M54" t="n">
+      <c r="O54" t="n">
         <v>0.997261062</v>
       </c>
-      <c r="N54" t="n">
+      <c r="P54" t="n">
         <v>1.07016488</v>
       </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
         <v>1.1162371</v>
       </c>
-      <c r="P54" t="n">
+      <c r="R54" t="n">
         <v>0.91122335</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="S54" t="n">
         <v>0.95695167</v>
       </c>
-      <c r="R54" t="n">
+      <c r="T54" t="n">
         <v>1.0223568</v>
       </c>
-      <c r="S54" t="n">
+      <c r="U54" t="n">
         <v>0.90667282</v>
       </c>
-      <c r="T54" t="n">
-        <v>52</v>
-      </c>
-      <c r="U54" t="n">
+      <c r="V54" t="n">
         <v>2022</v>
       </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B55" t="n">
         <v>0.4285714285714286</v>
       </c>
-      <c r="B55" t="n">
+      <c r="C55" t="n">
         <v>-0.2888888888888889</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>0.1085271317829457</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>-0.0691823899371069</v>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.125</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>0.5</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>0.1685393258426966</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
         <v>1.01302829</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
+        <v>53</v>
+      </c>
+      <c r="N55" t="n">
         <v>1.1266116</v>
       </c>
-      <c r="M55" t="n">
+      <c r="O55" t="n">
         <v>0.97927376</v>
       </c>
-      <c r="N55" t="n">
+      <c r="P55" t="n">
         <v>1.02915486</v>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>1.1395486</v>
       </c>
-      <c r="P55" t="n">
+      <c r="R55" t="n">
         <v>1.06018837</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="S55" t="n">
         <v>1.05968121</v>
       </c>
-      <c r="R55" t="n">
+      <c r="T55" t="n">
         <v>1.07653341</v>
       </c>
-      <c r="S55" t="n">
+      <c r="U55" t="n">
         <v>1.01290157</v>
       </c>
-      <c r="T55" t="n">
-        <v>53</v>
-      </c>
-      <c r="U55" t="n">
+      <c r="V55" t="n">
         <v>2022</v>
       </c>
-      <c r="V55" t="n">
+      <c r="W55" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="n">
+      <c r="A56" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="n">
         <v>-0.2592592592592593</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>-0.08965517241379306</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>-0.5</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>-0.08130081300813008</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>-0.4444444444444444</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>-0.4411764705882353</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>-0.1416666666666667</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
         <v>0.9986196000000001</v>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
+        <v>54</v>
+      </c>
+      <c r="N56" t="n">
         <v>1.007372501</v>
       </c>
-      <c r="M56" t="n">
+      <c r="O56" t="n">
         <v>1.08759894</v>
       </c>
-      <c r="N56" t="n">
+      <c r="P56" t="n">
         <v>1.02186036</v>
       </c>
-      <c r="O56" t="n">
+      <c r="Q56" t="n">
         <v>0.867055</v>
       </c>
-      <c r="P56" t="n">
+      <c r="R56" t="n">
         <v>1.002816902</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="S56" t="n">
         <v>1.009611331</v>
       </c>
-      <c r="R56" t="n">
+      <c r="T56" t="n">
         <v>0.94618328</v>
       </c>
-      <c r="S56" t="n">
+      <c r="U56" t="n">
         <v>0.97661668</v>
       </c>
-      <c r="T56" t="n">
-        <v>54</v>
-      </c>
-      <c r="U56" t="n">
+      <c r="V56" t="n">
         <v>2022</v>
       </c>
-      <c r="V56" t="n">
+      <c r="W56" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>0</v>
+      <c r="A57" s="2" t="n">
+        <v>44682</v>
       </c>
       <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
         <v>-0.2093023255813954</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>0.02777777777777768</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>-0.09999999999999998</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>-0.1779661016949152</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>-0.2941176470588235</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>0.1194029850746268</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
         <v>1.1252107</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
+        <v>55</v>
+      </c>
+      <c r="N57" t="n">
         <v>0.92485288</v>
       </c>
-      <c r="M57" t="n">
+      <c r="O57" t="n">
         <v>0.95875789</v>
       </c>
-      <c r="N57" t="n">
+      <c r="P57" t="n">
         <v>1.05462274</v>
       </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
         <v>1.05494177</v>
       </c>
-      <c r="P57" t="n">
+      <c r="R57" t="n">
         <v>1.05683481</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="S57" t="n">
         <v>0.96996651</v>
       </c>
-      <c r="R57" t="n">
+      <c r="T57" t="n">
         <v>0.94783014</v>
       </c>
-      <c r="S57" t="n">
+      <c r="U57" t="n">
         <v>1.1975512</v>
       </c>
-      <c r="T57" t="n">
-        <v>55</v>
-      </c>
-      <c r="U57" t="n">
+      <c r="V57" t="n">
         <v>2022</v>
       </c>
-      <c r="V57" t="n">
+      <c r="W57" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B58" t="n">
         <v>0.75</v>
       </c>
-      <c r="B58" t="n">
+      <c r="C58" t="n">
         <v>-0.1891891891891891</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>-0.06956521739130439</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>-0.1111111111111112</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>-0.1588785046728972</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>-0.1428571428571429</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>-0.2040816326530612</v>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
         <v>0.8627968</v>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
+        <v>56</v>
+      </c>
+      <c r="N58" t="n">
         <v>0.8772563</v>
       </c>
-      <c r="M58" t="n">
+      <c r="O58" t="n">
         <v>0.8419525999999999</v>
       </c>
-      <c r="N58" t="n">
+      <c r="P58" t="n">
         <v>0.8811872000000001</v>
       </c>
-      <c r="O58" t="n">
+      <c r="Q58" t="n">
         <v>0.8915576000000001</v>
       </c>
-      <c r="P58" t="n">
+      <c r="R58" t="n">
         <v>0.8633643</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="S58" t="n">
         <v>0.8114231</v>
       </c>
-      <c r="R58" t="n">
+      <c r="T58" t="n">
         <v>0.95515496</v>
       </c>
-      <c r="S58" t="n">
+      <c r="U58" t="n">
         <v>0.8966426000000001</v>
       </c>
-      <c r="T58" t="n">
-        <v>56</v>
-      </c>
-      <c r="U58" t="n">
+      <c r="V58" t="n">
         <v>2022</v>
       </c>
-      <c r="V58" t="n">
+      <c r="W58" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>0</v>
+      <c r="A59" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
         <v>-0.34</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>0.009708737864077666</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>-0.4285714285714286</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>-0.03539823008849563</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>0.2</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>-0.3333333333333334</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>0.75</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>0.04054054054054057</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
         <v>1.02945457</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
+        <v>57</v>
+      </c>
+      <c r="N59" t="n">
         <v>1.03822073</v>
       </c>
-      <c r="M59" t="n">
+      <c r="O59" t="n">
         <v>1.09661836</v>
       </c>
-      <c r="N59" t="n">
+      <c r="P59" t="n">
         <v>1.05536116</v>
       </c>
-      <c r="O59" t="n">
+      <c r="Q59" t="n">
         <v>0.97970808</v>
       </c>
-      <c r="P59" t="n">
+      <c r="R59" t="n">
         <v>1.02247191</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="S59" t="n">
         <v>0.97889269</v>
       </c>
-      <c r="R59" t="n">
+      <c r="T59" t="n">
         <v>1.00001683355</v>
       </c>
-      <c r="S59" t="n">
+      <c r="U59" t="n">
         <v>0.96093775</v>
       </c>
-      <c r="T59" t="n">
-        <v>57</v>
-      </c>
-      <c r="U59" t="n">
+      <c r="V59" t="n">
         <v>2022</v>
       </c>
-      <c r="V59" t="n">
+      <c r="W59" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B60" t="n">
         <v>-0.2</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="n">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
         <v>0.1902439024390243</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>0.1000000000000001</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>-0.04545454545454541</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>0.08333333333333326</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>-0.1875</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>-0.5</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>0.07228915662650603</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
         <v>1.0665252</v>
       </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
+        <v>58</v>
+      </c>
+      <c r="N60" t="n">
         <v>0.97281728</v>
       </c>
-      <c r="M60" t="n">
+      <c r="O60" t="n">
         <v>0.94052864</v>
       </c>
-      <c r="N60" t="n">
+      <c r="P60" t="n">
         <v>0.9711871</v>
       </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
         <v>0.997274709</v>
       </c>
-      <c r="P60" t="n">
+      <c r="R60" t="n">
         <v>0.98322353</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="S60" t="n">
         <v>0.97386434</v>
       </c>
-      <c r="R60" t="n">
+      <c r="T60" t="n">
         <v>1.009386827</v>
       </c>
-      <c r="S60" t="n">
+      <c r="U60" t="n">
         <v>1.004403879</v>
       </c>
-      <c r="T60" t="n">
-        <v>58</v>
-      </c>
-      <c r="U60" t="n">
+      <c r="V60" t="n">
         <v>2022</v>
       </c>
-      <c r="V60" t="n">
+      <c r="W60" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>0</v>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="n">
+      <c r="A61" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
         <v>0.04477611940298498</v>
       </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
       <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
         <v>0.04232804232804233</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>-0.1875</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>-0.5</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>0.1973684210526316</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>-0.2606837606837606</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>0.9392034500000001</v>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
+        <v>59</v>
+      </c>
+      <c r="N61" t="n">
         <v>0.98285491</v>
       </c>
-      <c r="M61" t="n">
+      <c r="O61" t="n">
         <v>0.8404866</v>
       </c>
-      <c r="N61" t="n">
+      <c r="P61" t="n">
         <v>0.8953551</v>
       </c>
-      <c r="O61" t="n">
+      <c r="Q61" t="n">
         <v>0.97560989</v>
       </c>
-      <c r="P61" t="n">
+      <c r="R61" t="n">
         <v>0.7616531</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="S61" t="n">
         <v>0.8568928</v>
       </c>
-      <c r="R61" t="n">
+      <c r="T61" t="n">
         <v>0.92447314</v>
       </c>
-      <c r="S61" t="n">
+      <c r="U61" t="n">
         <v>0.94042889</v>
       </c>
-      <c r="T61" t="n">
-        <v>59</v>
-      </c>
-      <c r="U61" t="n">
+      <c r="V61" t="n">
         <v>2022</v>
       </c>
-      <c r="V61" t="n">
+      <c r="W61" t="n">
         <v>9</v>
       </c>
     </row>
